--- a/model/Auswertung/Fließtext/Ergebnis_Kosmos/results.xlsx
+++ b/model/Auswertung/Fließtext/Ergebnis_Kosmos/results.xlsx
@@ -520,16 +520,16 @@
         <v>1606</v>
       </c>
       <c r="C2" t="n">
-        <v>5.47945205479452</v>
+        <v>2.86425902864259</v>
       </c>
       <c r="D2" t="n">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="E2" t="n">
         <v>218</v>
       </c>
       <c r="F2" t="n">
-        <v>11.00917431192661</v>
+        <v>4.587155963302752</v>
       </c>
       <c r="G2" t="n">
         <v>208</v>
@@ -541,22 +541,22 @@
         <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9326923076923077</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8899082568807339</v>
+        <v>0.9541284403669725</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9107981220657277</v>
+        <v>0.9765258215962441</v>
       </c>
       <c r="N2" t="n">
-        <v>81.78448205813642</v>
+        <v>99.75120988145648</v>
       </c>
       <c r="O2" t="n">
-        <v>78.18595141811745</v>
+        <v>90.08409241743443</v>
       </c>
     </row>
     <row r="3">
@@ -569,16 +569,16 @@
         <v>3580</v>
       </c>
       <c r="C3" t="n">
-        <v>4.357541899441341</v>
+        <v>1.564245810055866</v>
       </c>
       <c r="D3" t="n">
-        <v>156</v>
+        <v>56</v>
       </c>
       <c r="E3" t="n">
         <v>597</v>
       </c>
       <c r="F3" t="n">
-        <v>8.207705192629817</v>
+        <v>3.015075376884422</v>
       </c>
       <c r="G3" t="n">
         <v>579</v>
@@ -590,22 +590,22 @@
         <v>16</v>
       </c>
       <c r="J3" t="n">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9606164383561644</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9396984924623115</v>
+        <v>0.9782244556113903</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9500423370025403</v>
+        <v>0.9889923793395428</v>
       </c>
       <c r="N3" t="n">
-        <v>89.28993026377404</v>
+        <v>99.98011028819209</v>
       </c>
       <c r="O3" t="n">
-        <v>87.80388414073563</v>
+        <v>94.68810297440186</v>
       </c>
     </row>
     <row r="4">
@@ -618,16 +618,16 @@
         <v>1363</v>
       </c>
       <c r="C4" t="n">
-        <v>12.54585473220836</v>
+        <v>8.584005869405722</v>
       </c>
       <c r="D4" t="n">
-        <v>171</v>
+        <v>117</v>
       </c>
       <c r="E4" t="n">
         <v>190</v>
       </c>
       <c r="F4" t="n">
-        <v>30</v>
+        <v>20.52631578947368</v>
       </c>
       <c r="G4" t="n">
         <v>171</v>
@@ -639,22 +639,22 @@
         <v>16</v>
       </c>
       <c r="J4" t="n">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8372093023255814</v>
+        <v>0.9127906976744186</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7578947368421053</v>
+        <v>0.8263157894736842</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7955801104972375</v>
+        <v>0.8674033149171271</v>
       </c>
       <c r="N4" t="n">
-        <v>61.35179909093766</v>
+        <v>98.55249437309035</v>
       </c>
       <c r="O4" t="n">
-        <v>64.67705552714918</v>
+        <v>71.04567297682958</v>
       </c>
     </row>
     <row r="5">
@@ -667,16 +667,16 @@
         <v>3133</v>
       </c>
       <c r="C5" t="n">
-        <v>3.415256942227896</v>
+        <v>1.915097350781998</v>
       </c>
       <c r="D5" t="n">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="E5" t="n">
         <v>438</v>
       </c>
       <c r="F5" t="n">
-        <v>7.990867579908675</v>
+        <v>4.5662100456621</v>
       </c>
       <c r="G5" t="n">
         <v>421</v>
@@ -688,22 +688,22 @@
         <v>12</v>
       </c>
       <c r="J5" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9653579676674365</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>0.954337899543379</v>
+        <v>0.9885844748858448</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9598163030998852</v>
+        <v>0.9942594718714122</v>
       </c>
       <c r="N5" t="n">
-        <v>88.74307749821307</v>
+        <v>98.57794300691133</v>
       </c>
       <c r="O5" t="n">
-        <v>85.08461344480523</v>
+        <v>90.15619362508865</v>
       </c>
     </row>
     <row r="6">
@@ -716,16 +716,16 @@
         <v>1549</v>
       </c>
       <c r="C6" t="n">
-        <v>4.712717882504842</v>
+        <v>3.9380245319561</v>
       </c>
       <c r="D6" t="n">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E6" t="n">
         <v>204</v>
       </c>
       <c r="F6" t="n">
-        <v>12.74509803921569</v>
+        <v>10.7843137254902</v>
       </c>
       <c r="G6" t="n">
         <v>184</v>
@@ -737,22 +737,22 @@
         <v>18</v>
       </c>
       <c r="J6" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9740932642487047</v>
+        <v>0.9948186528497409</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9215686274509803</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="M6" t="n">
-        <v>0.947103274559194</v>
+        <v>0.9672544080604534</v>
       </c>
       <c r="N6" t="n">
-        <v>95.95887857087043</v>
+        <v>98.28900687798685</v>
       </c>
       <c r="O6" t="n">
-        <v>72.55714473578837</v>
+        <v>75.33320224224076</v>
       </c>
     </row>
     <row r="7">

--- a/model/Auswertung/Fließtext/Ergebnis_Kosmos/results.xlsx
+++ b/model/Auswertung/Fließtext/Ergebnis_Kosmos/results.xlsx
@@ -517,46 +517,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1606</v>
+        <v>1569</v>
       </c>
       <c r="C2" t="n">
-        <v>2.86425902864259</v>
+        <v>2.103250478011472</v>
       </c>
       <c r="D2" t="n">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E2" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F2" t="n">
-        <v>4.587155963302752</v>
+        <v>2.314814814814815</v>
       </c>
       <c r="G2" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H2" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9541284403669725</v>
+        <v>0.9768518518518519</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9765258215962441</v>
+        <v>0.9882903981264637</v>
       </c>
       <c r="N2" t="n">
-        <v>99.75120988145648</v>
+        <v>99.73835805145723</v>
       </c>
       <c r="O2" t="n">
-        <v>90.08409241743443</v>
+        <v>94.12181178547144</v>
       </c>
     </row>
     <row r="3">
@@ -566,46 +566,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3580</v>
+        <v>3496</v>
       </c>
       <c r="C3" t="n">
-        <v>1.564245810055866</v>
+        <v>1.487414187643021</v>
       </c>
       <c r="D3" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E3" t="n">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="F3" t="n">
-        <v>3.015075376884422</v>
+        <v>0.1694915254237288</v>
       </c>
       <c r="G3" t="n">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="H3" t="n">
         <v>590</v>
       </c>
       <c r="I3" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9782244556113903</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9889923793395428</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>99.98011028819209</v>
+        <v>99.98004893786451</v>
       </c>
       <c r="O3" t="n">
-        <v>94.68810297440186</v>
+        <v>99.83007585176821</v>
       </c>
     </row>
     <row r="4">
@@ -615,46 +615,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1363</v>
+        <v>1331</v>
       </c>
       <c r="C4" t="n">
-        <v>8.584005869405722</v>
+        <v>4.658151765589782</v>
       </c>
       <c r="D4" t="n">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="E4" t="n">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F4" t="n">
-        <v>20.52631578947368</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="G4" t="n">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="H4" t="n">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I4" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9127906976744186</v>
+        <v>0.9010989010989011</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8263157894736842</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8674033149171271</v>
+        <v>0.8961748633879781</v>
       </c>
       <c r="N4" t="n">
-        <v>98.55249437309035</v>
+        <v>98.80081554819705</v>
       </c>
       <c r="O4" t="n">
-        <v>71.04567297682958</v>
+        <v>85.0677297832307</v>
       </c>
     </row>
     <row r="5">
@@ -664,46 +664,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3133</v>
+        <v>3065</v>
       </c>
       <c r="C5" t="n">
-        <v>1.915097350781998</v>
+        <v>1.957585644371941</v>
       </c>
       <c r="D5" t="n">
         <v>60</v>
       </c>
       <c r="E5" t="n">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F5" t="n">
-        <v>4.5662100456621</v>
+        <v>4.587155963302752</v>
       </c>
       <c r="G5" t="n">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H5" t="n">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="I5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9885844748858448</v>
+        <v>0.9931192660550459</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9942594718714122</v>
+        <v>0.996547756041427</v>
       </c>
       <c r="N5" t="n">
-        <v>98.57794300691133</v>
+        <v>98.5368345555617</v>
       </c>
       <c r="O5" t="n">
-        <v>90.15619362508865</v>
+        <v>90.11033332812116</v>
       </c>
     </row>
     <row r="6">
@@ -713,46 +713,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1549</v>
+        <v>1496</v>
       </c>
       <c r="C6" t="n">
-        <v>3.9380245319561</v>
+        <v>2.13903743315508</v>
       </c>
       <c r="D6" t="n">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="E6" t="n">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F6" t="n">
-        <v>10.7843137254902</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="G6" t="n">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="H6" t="n">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I6" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="J6" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9948186528497409</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9411764705882353</v>
+        <v>0.9898989898989899</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9672544080604534</v>
+        <v>0.9949238578680203</v>
       </c>
       <c r="N6" t="n">
-        <v>98.28900687798685</v>
+        <v>98.1582989854802</v>
       </c>
       <c r="O6" t="n">
-        <v>75.33320224224076</v>
+        <v>89.30463118359341</v>
       </c>
     </row>
     <row r="7">
@@ -762,46 +762,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2129</v>
+        <v>2025</v>
       </c>
       <c r="C7" t="n">
-        <v>1.784875528417097</v>
+        <v>1.777777777777778</v>
       </c>
       <c r="D7" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E7" t="n">
         <v>268</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7462686567164178</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H7" t="n">
         <v>268</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9925373134328358</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9962546816479401</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
         <v>100.0000000000002</v>
       </c>
       <c r="O7" t="n">
-        <v>98.967422421916</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -811,46 +811,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2814</v>
+        <v>2754</v>
       </c>
       <c r="C8" t="n">
-        <v>1.847903340440654</v>
+        <v>0.1452432824981845</v>
       </c>
       <c r="D8" t="n">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="F8" t="n">
-        <v>5.74468085106383</v>
+        <v>0.8639308855291578</v>
       </c>
       <c r="G8" t="n">
-        <v>443</v>
+        <v>459</v>
       </c>
       <c r="H8" t="n">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="I8" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9468085106382979</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>0.9726775956284153</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>99.58733164841574</v>
+        <v>99.93466287553207</v>
       </c>
       <c r="O8" t="n">
-        <v>87.25489428983312</v>
+        <v>97.82594040101576</v>
       </c>
     </row>
     <row r="9">
@@ -860,46 +860,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2140</v>
+        <v>2111</v>
       </c>
       <c r="C9" t="n">
-        <v>1.728971962616822</v>
+        <v>0.994789199431549</v>
       </c>
       <c r="D9" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E9" t="n">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F9" t="n">
-        <v>5.421686746987952</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="G9" t="n">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="H9" t="n">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9938461538461538</v>
+        <v>0.9909365558912386</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9728915662650602</v>
+        <v>0.9939393939393939</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9832572298325722</v>
+        <v>0.9924357034795764</v>
       </c>
       <c r="N9" t="n">
-        <v>99.6538672948237</v>
+        <v>99.58653450817198</v>
       </c>
       <c r="O9" t="n">
-        <v>89.94503193744117</v>
+        <v>93.61647778000919</v>
       </c>
     </row>
   </sheetData>

--- a/model/Auswertung/Fließtext/Ergebnis_Kosmos/results.xlsx
+++ b/model/Auswertung/Fließtext/Ergebnis_Kosmos/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,65 +446,95 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Zeichenbasiert::Korrekte Zeichen</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Zeichenbasiert::Fehlende Zeichen</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Zeichenbasiert::Zusätzliche Zeichen</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Zeichenbasiert::CER</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Zeichenbasiert::Falsche Zeichen (absolut)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::Gesamtwörter</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Wörter</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Wörter inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Fehlende Wörter</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Zusätzliche Wörter</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::WER</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Korrekt erkannte Wörter</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Word Error Rate inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::Fast korrekt erkannte Wörter</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Fehlende Wörter</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Zusätzliche Wörter</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Quote</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Quote inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::Precision</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::Recall</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::F1 Score</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Semantisch::Cosine Similarity</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Semantisch::BLEU Score</t>
         </is>
@@ -520,42 +550,60 @@
         <v>1569</v>
       </c>
       <c r="C2" t="n">
-        <v>2.103250478011472</v>
+        <v>1565</v>
       </c>
       <c r="D2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" t="n">
         <v>33</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
+        <v>2.358189929891651</v>
+      </c>
+      <c r="G2" t="n">
         <v>216</v>
       </c>
-      <c r="F2" t="n">
-        <v>2.314814814814815</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>211</v>
       </c>
-      <c r="H2" t="n">
-        <v>216</v>
-      </c>
       <c r="I2" t="n">
+        <v>215</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.851851851851852</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>4</v>
       </c>
-      <c r="J2" t="n">
-        <v>5</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
+        <v>97.68518518518519</v>
+      </c>
+      <c r="P2" t="n">
+        <v>99.53703703703704</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
         <v>0.9768518518518519</v>
       </c>
-      <c r="M2" t="n">
+      <c r="S2" t="n">
         <v>0.9882903981264637</v>
       </c>
-      <c r="N2" t="n">
+      <c r="T2" t="n">
         <v>99.73835805145723</v>
       </c>
-      <c r="O2" t="n">
+      <c r="U2" t="n">
         <v>94.12181178547144</v>
       </c>
     </row>
@@ -569,42 +617,60 @@
         <v>3496</v>
       </c>
       <c r="C3" t="n">
-        <v>1.487414187643021</v>
+        <v>3495</v>
       </c>
       <c r="D3" t="n">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
+        <v>38</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.115560640732266</v>
+      </c>
+      <c r="G3" t="n">
         <v>590</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
+        <v>589</v>
+      </c>
+      <c r="I3" t="n">
+        <v>589</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>0.1694915254237288</v>
       </c>
-      <c r="G3" t="n">
-        <v>589</v>
-      </c>
-      <c r="H3" t="n">
-        <v>590</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>0.1694915254237288</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>99.83050847457628</v>
+      </c>
+      <c r="P3" t="n">
+        <v>99.83050847457628</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="n">
         <v>99.98004893786451</v>
       </c>
-      <c r="O3" t="n">
+      <c r="U3" t="n">
         <v>99.83007585176821</v>
       </c>
     </row>
@@ -618,42 +684,60 @@
         <v>1331</v>
       </c>
       <c r="C4" t="n">
-        <v>4.658151765589782</v>
+        <v>1329</v>
       </c>
       <c r="D4" t="n">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
+        <v>55</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4.282494365138994</v>
+      </c>
+      <c r="G4" t="n">
         <v>184</v>
       </c>
-      <c r="F4" t="n">
-        <v>13.04347826086956</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>179</v>
       </c>
-      <c r="H4" t="n">
-        <v>181</v>
-      </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>180</v>
       </c>
       <c r="J4" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
+        <v>19</v>
+      </c>
+      <c r="L4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>11.95652173913044</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>97.28260869565217</v>
+      </c>
+      <c r="P4" t="n">
+        <v>97.82608695652173</v>
+      </c>
+      <c r="Q4" t="n">
         <v>0.9010989010989011</v>
       </c>
-      <c r="L4" t="n">
+      <c r="R4" t="n">
         <v>0.8913043478260869</v>
       </c>
-      <c r="M4" t="n">
+      <c r="S4" t="n">
         <v>0.8961748633879781</v>
       </c>
-      <c r="N4" t="n">
+      <c r="T4" t="n">
         <v>98.80081554819705</v>
       </c>
-      <c r="O4" t="n">
+      <c r="U4" t="n">
         <v>85.0677297832307</v>
       </c>
     </row>
@@ -667,42 +751,60 @@
         <v>3065</v>
       </c>
       <c r="C5" t="n">
-        <v>1.957585644371941</v>
+        <v>3051</v>
       </c>
       <c r="D5" t="n">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="E5" t="n">
+        <v>35</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.598694942903752</v>
+      </c>
+      <c r="G5" t="n">
         <v>436</v>
       </c>
-      <c r="F5" t="n">
-        <v>4.587155963302752</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>419</v>
       </c>
-      <c r="H5" t="n">
-        <v>434</v>
-      </c>
       <c r="I5" t="n">
-        <v>11</v>
+        <v>420</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
+        <v>2.981651376146789</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2.752293577981652</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>96.10091743119266</v>
+      </c>
+      <c r="P5" t="n">
+        <v>96.3302752293578</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
         <v>0.9931192660550459</v>
       </c>
-      <c r="M5" t="n">
+      <c r="S5" t="n">
         <v>0.996547756041427</v>
       </c>
-      <c r="N5" t="n">
+      <c r="T5" t="n">
         <v>98.5368345555617</v>
       </c>
-      <c r="O5" t="n">
+      <c r="U5" t="n">
         <v>90.11033332812116</v>
       </c>
     </row>
@@ -716,42 +818,60 @@
         <v>1496</v>
       </c>
       <c r="C6" t="n">
-        <v>2.13903743315508</v>
+        <v>1484</v>
       </c>
       <c r="D6" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E6" t="n">
+        <v>18</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.005347593582888</v>
+      </c>
+      <c r="G6" t="n">
         <v>198</v>
       </c>
-      <c r="F6" t="n">
-        <v>4.545454545454546</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>189</v>
       </c>
-      <c r="H6" t="n">
-        <v>196</v>
-      </c>
       <c r="I6" t="n">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
       </c>
       <c r="L6" t="n">
+        <v>4.040404040404041</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3.535353535353535</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>95.45454545454545</v>
+      </c>
+      <c r="P6" t="n">
+        <v>95.95959595959596</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
         <v>0.9898989898989899</v>
       </c>
-      <c r="M6" t="n">
+      <c r="S6" t="n">
         <v>0.9949238578680203</v>
       </c>
-      <c r="N6" t="n">
+      <c r="T6" t="n">
         <v>98.1582989854802</v>
       </c>
-      <c r="O6" t="n">
+      <c r="U6" t="n">
         <v>89.30463118359341</v>
       </c>
     </row>
@@ -765,16 +885,16 @@
         <v>2025</v>
       </c>
       <c r="C7" t="n">
-        <v>1.777777777777778</v>
+        <v>2015</v>
       </c>
       <c r="D7" t="n">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>268</v>
+        <v>23</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.62962962962963</v>
       </c>
       <c r="G7" t="n">
         <v>268</v>
@@ -783,24 +903,42 @@
         <v>268</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>268</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>100</v>
+      </c>
+      <c r="P7" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="n">
         <v>100.0000000000002</v>
       </c>
-      <c r="O7" t="n">
+      <c r="U7" t="n">
         <v>100</v>
       </c>
     </row>
@@ -814,42 +952,60 @@
         <v>2754</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1452432824981845</v>
+        <v>2752</v>
       </c>
       <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
         <v>4</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
+        <v>0.2178649237472767</v>
+      </c>
+      <c r="G8" t="n">
         <v>463</v>
       </c>
-      <c r="F8" t="n">
-        <v>0.8639308855291578</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>459</v>
       </c>
-      <c r="H8" t="n">
-        <v>463</v>
-      </c>
       <c r="I8" t="n">
+        <v>459</v>
+      </c>
+      <c r="J8" t="n">
         <v>3</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0.6479481641468683</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>0.6479481641468683</v>
       </c>
       <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>99.13606911447084</v>
+      </c>
+      <c r="P8" t="n">
+        <v>99.13606911447084</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="n">
         <v>99.93466287553207</v>
       </c>
-      <c r="O8" t="n">
+      <c r="U8" t="n">
         <v>97.82594040101576</v>
       </c>
     </row>
@@ -863,42 +1019,60 @@
         <v>2111</v>
       </c>
       <c r="C9" t="n">
-        <v>0.994789199431549</v>
+        <v>2109</v>
       </c>
       <c r="D9" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
+        <v>16</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.8526764566556134</v>
+      </c>
+      <c r="G9" t="n">
         <v>330</v>
       </c>
-      <c r="F9" t="n">
-        <v>3.03030303030303</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>324</v>
       </c>
-      <c r="H9" t="n">
-        <v>328</v>
-      </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>326</v>
       </c>
       <c r="J9" t="n">
+        <v>3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.515151515151515</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="N9" t="n">
         <v>2</v>
       </c>
-      <c r="K9" t="n">
+      <c r="O9" t="n">
+        <v>98.18181818181819</v>
+      </c>
+      <c r="P9" t="n">
+        <v>98.7878787878788</v>
+      </c>
+      <c r="Q9" t="n">
         <v>0.9909365558912386</v>
       </c>
-      <c r="L9" t="n">
+      <c r="R9" t="n">
         <v>0.9939393939393939</v>
       </c>
-      <c r="M9" t="n">
+      <c r="S9" t="n">
         <v>0.9924357034795764</v>
       </c>
-      <c r="N9" t="n">
+      <c r="T9" t="n">
         <v>99.58653450817198</v>
       </c>
-      <c r="O9" t="n">
+      <c r="U9" t="n">
         <v>93.61647778000919</v>
       </c>
     </row>

--- a/model/Auswertung/Fließtext/Ergebnis_Kosmos/results.xlsx
+++ b/model/Auswertung/Fließtext/Ergebnis_Kosmos/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,474 +436,492 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Gesamtzeichen</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Korrekte Zeichen</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Fehlende Zeichen</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Zusätzliche Zeichen</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>CER</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Gesamtwörter</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Korrekt erkannte Wörter</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Fehlende Wörter</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Zusätzliche Wörter</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Fast korrekt fehlend</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Fast korrekt zusätzlich</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>WER</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Erweiterter WER</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Precision erweitert</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Recall erweitert</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>F1-Score</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>F1-Score erweitert</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Cosine Similarity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>BLEU Score</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
           <t>Durchlauf</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Zeichenbasiert::Gesamtzeichen</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Zeichenbasiert::Korrekte Zeichen</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Zeichenbasiert::Fehlende Zeichen</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Zeichenbasiert::Zusätzliche Zeichen</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Zeichenbasiert::CER</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Gesamtwörter</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Korrekt erkannte Wörter</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Korrekt erkannte Wörter inkl. fast korrekter Wörter</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Fehlende Wörter</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Zusätzliche Wörter</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::WER</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Word Error Rate inkl. fast korrekter Wörter</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Fast korrekt erkannte Wörter</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Korrekt erkannte Quote</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Korrekt erkannte Quote inkl. fast korrekter Wörter</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Weitere Metriken::Precision</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Weitere Metriken::Recall</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Weitere Metriken::F1 Score</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Semantisch::Cosine Similarity</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Semantisch::BLEU Score</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>1569</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1565</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>33</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0236</v>
+      </c>
+      <c r="F2" t="n">
+        <v>216</v>
+      </c>
+      <c r="G2" t="n">
+        <v>212</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.0417</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0046</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.977</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.9953</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.9815</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.9792</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.9976</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.9974</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.9412</v>
+      </c>
+      <c r="V2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1569</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1565</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E2" t="n">
-        <v>33</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2.358189929891651</v>
-      </c>
-      <c r="G2" t="n">
-        <v>216</v>
-      </c>
-      <c r="H2" t="n">
-        <v>211</v>
-      </c>
-      <c r="I2" t="n">
-        <v>215</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.851851851851852</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O2" t="n">
-        <v>97.68518518518519</v>
-      </c>
-      <c r="P2" t="n">
-        <v>99.53703703703704</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.9768518518518519</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.9882903981264637</v>
-      </c>
-      <c r="T2" t="n">
-        <v>99.73835805145723</v>
-      </c>
-      <c r="U2" t="n">
-        <v>94.12181178547144</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="A3" t="n">
+        <v>3496</v>
       </c>
       <c r="B3" t="n">
-        <v>3496</v>
+        <v>3495</v>
       </c>
       <c r="C3" t="n">
-        <v>3495</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="E3" t="n">
-        <v>38</v>
+        <v>0.0112</v>
       </c>
       <c r="F3" t="n">
-        <v>1.115560640732266</v>
+        <v>590</v>
       </c>
       <c r="G3" t="n">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H3" t="n">
-        <v>589</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>589</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1694915254237288</v>
+        <v>0.0017</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1694915254237288</v>
+        <v>0.0017</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>99.83050847457628</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>99.83050847457628</v>
+        <v>0.9983</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>0.9983</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>0.9992</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>0.9992</v>
       </c>
       <c r="T3" t="n">
-        <v>99.98004893786451</v>
+        <v>0.9998</v>
       </c>
       <c r="U3" t="n">
-        <v>99.83007585176821</v>
+        <v>0.9983</v>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>1331</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1329</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>55</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0428</v>
+      </c>
+      <c r="F4" t="n">
+        <v>184</v>
+      </c>
+      <c r="G4" t="n">
+        <v>180</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>21</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.1359</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.8955</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.9782999999999999</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.9836</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.9351</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.9399</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.8507</v>
+      </c>
+      <c r="V4" t="inlineStr">
         <is>
           <t>6</t>
         </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1331</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1329</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="n">
-        <v>55</v>
-      </c>
-      <c r="F4" t="n">
-        <v>4.282494365138994</v>
-      </c>
-      <c r="G4" t="n">
-        <v>184</v>
-      </c>
-      <c r="H4" t="n">
-        <v>179</v>
-      </c>
-      <c r="I4" t="n">
-        <v>180</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3</v>
-      </c>
-      <c r="K4" t="n">
-        <v>19</v>
-      </c>
-      <c r="L4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="M4" t="n">
-        <v>11.95652173913044</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" t="n">
-        <v>97.28260869565217</v>
-      </c>
-      <c r="P4" t="n">
-        <v>97.82608695652173</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.9010989010989011</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.8913043478260869</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.8961748633879781</v>
-      </c>
-      <c r="T4" t="n">
-        <v>98.80081554819705</v>
-      </c>
-      <c r="U4" t="n">
-        <v>85.0677297832307</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>3065</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3051</v>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>35</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="F5" t="n">
+        <v>436</v>
+      </c>
+      <c r="G5" t="n">
+        <v>425</v>
+      </c>
+      <c r="H5" t="n">
+        <v>11</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.0321</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.0275</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.993</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.9953</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.9748</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.977</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.9838</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.9861</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.9854000000000001</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.9011</v>
+      </c>
+      <c r="V5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
-      </c>
-      <c r="B5" t="n">
-        <v>3065</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3051</v>
-      </c>
-      <c r="D5" t="n">
-        <v>14</v>
-      </c>
-      <c r="E5" t="n">
-        <v>35</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.598694942903752</v>
-      </c>
-      <c r="G5" t="n">
-        <v>436</v>
-      </c>
-      <c r="H5" t="n">
-        <v>419</v>
-      </c>
-      <c r="I5" t="n">
-        <v>420</v>
-      </c>
-      <c r="J5" t="n">
-        <v>10</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.981651376146789</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2.752293577981652</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" t="n">
-        <v>96.10091743119266</v>
-      </c>
-      <c r="P5" t="n">
-        <v>96.3302752293578</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.9931192660550459</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.996547756041427</v>
-      </c>
-      <c r="T5" t="n">
-        <v>98.5368345555617</v>
-      </c>
-      <c r="U5" t="n">
-        <v>90.11033332812116</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>1496</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1484</v>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>18</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0201</v>
+      </c>
+      <c r="F6" t="n">
+        <v>198</v>
+      </c>
+      <c r="G6" t="n">
+        <v>191</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.0455</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.0354</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.9896</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.9948</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.9646</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.9695</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.977</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.982</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.9816</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.893</v>
+      </c>
+      <c r="V6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1496</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1484</v>
-      </c>
-      <c r="D6" t="n">
-        <v>12</v>
-      </c>
-      <c r="E6" t="n">
-        <v>18</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.005347593582888</v>
-      </c>
-      <c r="G6" t="n">
-        <v>198</v>
-      </c>
-      <c r="H6" t="n">
-        <v>189</v>
-      </c>
-      <c r="I6" t="n">
-        <v>190</v>
-      </c>
-      <c r="J6" t="n">
-        <v>6</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4.040404040404041</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3.535353535353535</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" t="n">
-        <v>95.45454545454545</v>
-      </c>
-      <c r="P6" t="n">
-        <v>95.95959595959596</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.9898989898989899</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.9949238578680203</v>
-      </c>
-      <c r="T6" t="n">
-        <v>98.1582989854802</v>
-      </c>
-      <c r="U6" t="n">
-        <v>89.30463118359341</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="A7" t="n">
+        <v>2025</v>
       </c>
       <c r="B7" t="n">
-        <v>2025</v>
+        <v>2015</v>
       </c>
       <c r="C7" t="n">
-        <v>2015</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E7" t="n">
-        <v>23</v>
+        <v>0.0163</v>
       </c>
       <c r="F7" t="n">
-        <v>1.62962962962963</v>
+        <v>268</v>
       </c>
       <c r="G7" t="n">
         <v>268</v>
       </c>
       <c r="H7" t="n">
-        <v>268</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>268</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -918,13 +936,13 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -936,144 +954,155 @@
         <v>1</v>
       </c>
       <c r="T7" t="n">
-        <v>100.0000000000002</v>
+        <v>1</v>
       </c>
       <c r="U7" t="n">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="A8" t="n">
+        <v>2754</v>
       </c>
       <c r="B8" t="n">
-        <v>2754</v>
+        <v>2752</v>
       </c>
       <c r="C8" t="n">
-        <v>2752</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>0.0022</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2178649237472767</v>
+        <v>463</v>
       </c>
       <c r="G8" t="n">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="H8" t="n">
-        <v>459</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>459</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6479481641468683</v>
+        <v>0.0065</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6479481641468683</v>
+        <v>0.0065</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>99.13606911447084</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>99.13606911447084</v>
+        <v>0.9935</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>0.9935</v>
       </c>
       <c r="R8" t="n">
-        <v>1</v>
+        <v>0.9967</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>0.9967</v>
       </c>
       <c r="T8" t="n">
-        <v>99.93466287553207</v>
+        <v>0.9993</v>
       </c>
       <c r="U8" t="n">
-        <v>97.82594040101576</v>
+        <v>0.9782999999999999</v>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>2111</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2109</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>16</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.008500000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>330</v>
+      </c>
+      <c r="G9" t="n">
+        <v>325</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.0212</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.0091</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.9939</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.9848</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.9909</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.9893</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.9954</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.9959</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.9362</v>
+      </c>
+      <c r="V9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2111</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2109</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" t="n">
-        <v>16</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.8526764566556134</v>
-      </c>
-      <c r="G9" t="n">
-        <v>330</v>
-      </c>
-      <c r="H9" t="n">
-        <v>324</v>
-      </c>
-      <c r="I9" t="n">
-        <v>326</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.515151515151515</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.9090909090909091</v>
-      </c>
-      <c r="N9" t="n">
-        <v>2</v>
-      </c>
-      <c r="O9" t="n">
-        <v>98.18181818181819</v>
-      </c>
-      <c r="P9" t="n">
-        <v>98.7878787878788</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.9909365558912386</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0.9939393939393939</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.9924357034795764</v>
-      </c>
-      <c r="T9" t="n">
-        <v>99.58653450817198</v>
-      </c>
-      <c r="U9" t="n">
-        <v>93.61647778000919</v>
       </c>
     </row>
   </sheetData>

--- a/model/Auswertung/Fließtext/Ergebnis_Kosmos/results.xlsx
+++ b/model/Auswertung/Fließtext/Ergebnis_Kosmos/results.xlsx
@@ -577,19 +577,19 @@
         <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
         <v>0.0417</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0046</v>
+        <v>0.0139</v>
       </c>
       <c r="N2" t="n">
         <v>0.977</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9953</v>
+        <v>0.986</v>
       </c>
       <c r="P2" t="n">
         <v>0.9815</v>
@@ -601,7 +601,7 @@
         <v>0.9792</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9976</v>
+        <v>0.993</v>
       </c>
       <c r="T2" t="n">
         <v>0.9974</v>
@@ -845,10 +845,10 @@
         <v>198</v>
       </c>
       <c r="G6" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I6" t="n">
         <v>2</v>
@@ -860,28 +860,28 @@
         <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0455</v>
+        <v>0.0404</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0354</v>
+        <v>0.0303</v>
       </c>
       <c r="N6" t="n">
-        <v>0.9896</v>
+        <v>0.9897</v>
       </c>
       <c r="O6" t="n">
         <v>0.9948</v>
       </c>
       <c r="P6" t="n">
-        <v>0.9646</v>
+        <v>0.9697</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.9695</v>
+        <v>0.9746</v>
       </c>
       <c r="R6" t="n">
-        <v>0.977</v>
+        <v>0.9796</v>
       </c>
       <c r="S6" t="n">
-        <v>0.982</v>
+        <v>0.9846</v>
       </c>
       <c r="T6" t="n">
         <v>0.9816</v>
@@ -970,25 +970,25 @@
         <v>2754</v>
       </c>
       <c r="B8" t="n">
-        <v>2752</v>
+        <v>2754</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
-        <v>4</v>
-      </c>
       <c r="E8" t="n">
-        <v>0.0022</v>
+        <v>0.0007</v>
       </c>
       <c r="F8" t="n">
         <v>463</v>
       </c>
       <c r="G8" t="n">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1000,10 +1000,10 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0065</v>
+        <v>0.0043</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0065</v>
+        <v>0.0043</v>
       </c>
       <c r="N8" t="n">
         <v>1</v>
@@ -1012,22 +1012,22 @@
         <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>0.9935</v>
+        <v>0.9957</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.9935</v>
+        <v>0.9957</v>
       </c>
       <c r="R8" t="n">
-        <v>0.9967</v>
+        <v>0.9978</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9967</v>
+        <v>0.9978</v>
       </c>
       <c r="T8" t="n">
         <v>0.9993</v>
       </c>
       <c r="U8" t="n">
-        <v>0.9782999999999999</v>
+        <v>0.9891</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>

--- a/model/Auswertung/Fließtext/Ergebnis_Kosmos/results.xlsx
+++ b/model/Auswertung/Fließtext/Ergebnis_Kosmos/results.xlsx
@@ -547,19 +547,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1569</v>
+        <v>1556</v>
       </c>
       <c r="B2" t="n">
-        <v>1565</v>
+        <v>1552</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0236</v>
+        <v>0.0058</v>
       </c>
       <c r="F2" t="n">
         <v>216</v>
@@ -617,19 +617,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3496</v>
+        <v>3478</v>
       </c>
       <c r="B3" t="n">
-        <v>3495</v>
+        <v>3477</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0112</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="F3" t="n">
         <v>590</v>
@@ -687,19 +687,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1331</v>
+        <v>1319</v>
       </c>
       <c r="B4" t="n">
-        <v>1329</v>
+        <v>1317</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0428</v>
+        <v>0.0174</v>
       </c>
       <c r="F4" t="n">
         <v>184</v>
@@ -757,19 +757,19 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3065</v>
+        <v>3055</v>
       </c>
       <c r="B5" t="n">
-        <v>3051</v>
+        <v>3041</v>
       </c>
       <c r="C5" t="n">
         <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E5" t="n">
-        <v>0.016</v>
+        <v>0.0095</v>
       </c>
       <c r="F5" t="n">
         <v>436</v>
@@ -827,19 +827,19 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1496</v>
+        <v>1482</v>
       </c>
       <c r="B6" t="n">
-        <v>1484</v>
+        <v>1473</v>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0201</v>
+        <v>0.0101</v>
       </c>
       <c r="F6" t="n">
         <v>198</v>
@@ -897,19 +897,19 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="B7" t="n">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0163</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>268</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2754</v>
+        <v>2735</v>
       </c>
       <c r="B8" t="n">
-        <v>2754</v>
+        <v>2735</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2111</v>
+        <v>2098</v>
       </c>
       <c r="B9" t="n">
-        <v>2109</v>
+        <v>2096</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
@@ -1049,7 +1049,7 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>0.008500000000000001</v>
+        <v>0.0086</v>
       </c>
       <c r="F9" t="n">
         <v>330</v>
